--- a/DesignFiles/Excel/Buildings.xlsx
+++ b/DesignFiles/Excel/Buildings.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="670" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="777" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketBuilding" sheetId="1" r:id="rId1"/>
     <sheet name="Roads" sheetId="3" r:id="rId2"/>
     <sheet name="PublicServices" sheetId="4" r:id="rId3"/>
-    <sheet name="Military" sheetId="6" r:id="rId4"/>
-    <sheet name="NeedsBuilding" sheetId="5" r:id="rId5"/>
-    <sheet name="Growables" sheetId="2" r:id="rId6"/>
-    <sheet name="ProductionBuilding" sheetId="7" r:id="rId7"/>
-    <sheet name="Farm" sheetId="8" r:id="rId8"/>
-    <sheet name="RessourceMining" sheetId="11" r:id="rId9"/>
+    <sheet name="NeedsBuilding" sheetId="5" r:id="rId4"/>
+    <sheet name="Growables" sheetId="2" r:id="rId5"/>
+    <sheet name="ProductionBuilding" sheetId="7" r:id="rId6"/>
+    <sheet name="Farm" sheetId="8" r:id="rId7"/>
+    <sheet name="RessourceMining" sheetId="11" r:id="rId8"/>
+    <sheet name="Military" sheetId="6" r:id="rId9"/>
     <sheet name="Palace" sheetId="9" r:id="rId10"/>
     <sheet name="Decorative" sheetId="10" r:id="rId11"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="310">
   <si>
     <t>ID</t>
   </si>
@@ -935,13 +935,37 @@
   </si>
   <si>
     <t>Quarz</t>
+  </si>
+  <si>
+    <t>Bauernhaus</t>
+  </si>
+  <si>
+    <t>Peasant house</t>
+  </si>
+  <si>
+    <t>Bürgerhaus</t>
+  </si>
+  <si>
+    <t>Citizen house</t>
+  </si>
+  <si>
+    <t>Patrician house</t>
+  </si>
+  <si>
+    <t>Patrizierhaus</t>
+  </si>
+  <si>
+    <t>Adligenhaus</t>
+  </si>
+  <si>
+    <t>Nobleman house</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,6 +983,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1020,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,9 +1060,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1044,6 +1072,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,52 +1141,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:O5" tableType="xml" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:O5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:O5" tableType="xml" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:O5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" uniqueName="ID" name="ID">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/@ID" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="DE_Name" name="GERMAN">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="DE_Name" name="GERMAN">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/DE_Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="EN_Name" name="ENGLISH">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="EN_Name" name="ENGLISH">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/EN_Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Pop_Level" name="Population-Level">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="Pop_Level" name="Population-Level">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/Pop_Level" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Count" name="Count">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="Count" name="Count">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/Count" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Walkspeed" name="Walkspeed">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="Walkspeed" name="Walkspeed">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/Walkspeed" xmlDataType="decimal"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Wood" name="Holz">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Wood" name="Holz">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/Wood" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Tool" name="Werkzeuge">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="Tool" name="Werkzeuge">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/Tool" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Stone" name="Stein">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="Stone" name="Stein">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/Stone" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Brick" name="Ziegel">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="Brick" name="Ziegel">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/Brick" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Marble" name="Marmor">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="Marble" name="Marmor">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/Marble" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Glas" name="Glass">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="Glas" name="Glass">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/Glas" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="ExoticWood" name="Luxus Holz">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="ExoticWood" name="Luxus Holz">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/ExoticWood" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="Buildprice" name="Baukosten">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="Buildprice" name="Baukosten">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/Buildprice" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="Upkeep" name="Unterhaltungskosten">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="Upkeep" name="Unterhaltungskosten">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/Upkeep" xmlDataType="int"/>
     </tableColumn>
   </tableColumns>
@@ -1454,14 +1490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
@@ -1473,7 +1509,7 @@
     <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,35 +1537,35 @@
       <c r="I1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1585,7 +1621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1635,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1685,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -1732,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1779,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1826,32 +1862,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
   </sheetData>
@@ -1861,19 +1897,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1881,73 +1917,73 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>501</v>
+        <v>601</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>502</v>
+        <v>602</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>503</v>
+        <v>603</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>504</v>
+        <v>604</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>505</v>
+        <v>605</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>506</v>
+        <v>606</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>507</v>
+        <v>607</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>508</v>
+        <v>608</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1959,28 +1995,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="3" width="27.7109375" customWidth="1"/>
@@ -1997,7 +2033,7 @@
     <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,35 +2052,35 @@
       <c r="F1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2063,35 +2099,35 @@
       <c r="F2" s="2">
         <v>0.75</v>
       </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
         <v>100</v>
       </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2110,35 +2146,35 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
         <v>250</v>
       </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -2157,35 +2193,35 @@
       <c r="F4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
         <v>600</v>
       </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -2204,31 +2240,31 @@
       <c r="F5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
         <v>1</v>
       </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
         <v>800</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2241,19 +2277,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2309,15 +2345,15 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2335,15 +2371,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2361,15 +2397,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2387,20 +2423,174 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2409,245 +2599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>220</v>
-      </c>
-      <c r="R1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="2">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2">
-        <v>48</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>206</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>200</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7">
-        <v>203</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E8" t="s">
-        <v>296</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="27.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -2656,7 +2615,7 @@
     <col min="19" max="19" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2687,7 +2646,7 @@
       <c r="J1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>213</v>
       </c>
       <c r="L1" t="s">
@@ -2715,7 +2674,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50</v>
       </c>
@@ -2741,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>51</v>
       </c>
@@ -2767,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>52</v>
       </c>
@@ -2793,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>53</v>
       </c>
@@ -2819,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>54</v>
       </c>
@@ -2845,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>55</v>
       </c>
@@ -2871,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>56</v>
       </c>
@@ -2897,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>57</v>
       </c>
@@ -2923,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>58</v>
       </c>
@@ -2949,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59</v>
       </c>
@@ -2975,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>60</v>
       </c>
@@ -3001,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>61</v>
       </c>
@@ -3027,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>62</v>
       </c>
@@ -3053,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>63</v>
       </c>
@@ -3079,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>64</v>
       </c>
@@ -3111,15 +3070,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="A24:N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
@@ -3127,7 +3086,7 @@
     <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3186,7 +3145,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -3239,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
@@ -3292,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>102</v>
       </c>
@@ -3345,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>103</v>
       </c>
@@ -3398,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>104</v>
       </c>
@@ -3451,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>105</v>
       </c>
@@ -3504,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>106</v>
       </c>
@@ -3557,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>107</v>
       </c>
@@ -3610,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>108</v>
       </c>
@@ -3663,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>109</v>
       </c>
@@ -3716,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>110</v>
       </c>
@@ -3769,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>111</v>
       </c>
@@ -3822,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>112</v>
       </c>
@@ -3875,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>113</v>
       </c>
@@ -3928,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>114</v>
       </c>
@@ -3981,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>115</v>
       </c>
@@ -4034,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>116</v>
       </c>
@@ -4087,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>117</v>
       </c>
@@ -4140,11 +4099,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
     </row>
   </sheetData>
@@ -4152,1040 +4111,1046 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="12"/>
+    <col min="2" max="3" width="27.7109375" style="12" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="12"/>
+    <col min="6" max="6" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="12"/>
+    <col min="8" max="8" width="20.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="12" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="11.42578125" style="12"/>
+    <col min="20" max="20" width="11.5703125" style="12" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="12"/>
+    <col min="22" max="22" width="21.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>200</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <v>-1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="12">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="2">
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>201</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
         <v>-1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="12">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>202</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
         <v>47</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5">
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>203</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="12">
         <v>48</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
         <v>49</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="2">
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>204</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="12">
         <v>28</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="12">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>205</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="12">
         <v>29</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="2">
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>207</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="12">
         <v>21</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="12">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>208</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>65</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="12">
         <v>66</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>209</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
         <v>-1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="2">
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>210</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="12">
         <v>55</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>211</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="12">
         <v>34</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>212</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="12">
         <v>52</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="2">
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>213</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="12">
         <v>52</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="12">
         <v>53</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>214</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="12">
         <v>4</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>215</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
         <v>5</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2">
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>216</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="12">
         <v>43</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="12">
         <v>44</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>217</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="12">
         <v>55</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="12">
         <v>56</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>218</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2">
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>219</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>220</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>221</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2">
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>222</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>223</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>224</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2">
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>225</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>226</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>227</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2">
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>228</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>229</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>230</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2">
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>231</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34">
+      <c r="I33" s="12">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
         <v>232</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
         <v>233</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="2">
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>234</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
         <v>235</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>236</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="2">
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <v>237</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40">
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
         <v>238</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41">
+      <c r="I40" s="12">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
         <v>239</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="2">
+      <c r="I41" s="12">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>240</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="2">
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
         <v>241</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1"/>
-    <row r="47" spans="1:10">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="2"/>
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5193,15 +5158,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
@@ -5212,7 +5177,7 @@
     <col min="20" max="20" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5271,7 +5236,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>400</v>
       </c>
@@ -5285,7 +5250,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>401</v>
       </c>
@@ -5299,7 +5264,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>402</v>
       </c>
@@ -5313,7 +5278,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>403</v>
       </c>
@@ -5327,7 +5292,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>404</v>
       </c>
@@ -5341,7 +5306,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>405</v>
       </c>
@@ -5355,7 +5320,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>406</v>
       </c>
@@ -5369,7 +5334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>407</v>
       </c>
@@ -5383,7 +5348,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>408</v>
       </c>
@@ -5397,7 +5362,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>409</v>
       </c>
@@ -5411,7 +5376,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>410</v>
       </c>
@@ -5425,7 +5390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>411</v>
       </c>
@@ -5439,7 +5404,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>412</v>
       </c>
@@ -5453,7 +5418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>413</v>
       </c>
@@ -5467,7 +5432,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>414</v>
       </c>
@@ -5481,7 +5446,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>415</v>
       </c>
@@ -5495,7 +5460,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>416</v>
       </c>
@@ -5509,7 +5474,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>417</v>
       </c>
@@ -5523,7 +5488,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>418</v>
       </c>
@@ -5537,7 +5502,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>419</v>
       </c>
@@ -5551,19 +5516,19 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
   </sheetData>
@@ -5571,15 +5536,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -5590,7 +5555,7 @@
     <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5652,7 +5617,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>450</v>
       </c>
@@ -5678,7 +5643,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>451</v>
       </c>
@@ -5704,7 +5669,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>452</v>
       </c>
@@ -5730,7 +5695,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>453</v>
       </c>
@@ -5756,7 +5721,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>454</v>
       </c>
@@ -5782,7 +5747,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>455</v>
       </c>
@@ -5808,7 +5773,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>456</v>
       </c>
@@ -5834,7 +5799,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>457</v>
       </c>
@@ -5860,7 +5825,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>458</v>
       </c>
@@ -5886,7 +5851,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>459</v>
       </c>
@@ -5912,7 +5877,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>460</v>
       </c>
@@ -5938,7 +5903,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>461</v>
       </c>
@@ -5963,6 +5928,237 @@
       <c r="H13" t="s">
         <v>203</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>500</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>501</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>502</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>206</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>503</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>504</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>505</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7">
+        <v>203</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>506</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/DesignFiles/Excel/Buildings.xlsx
+++ b/DesignFiles/Excel/Buildings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="777" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11925" tabRatio="777" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketBuilding" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="PublicServices" sheetId="4" r:id="rId3"/>
     <sheet name="NeedsBuilding" sheetId="5" r:id="rId4"/>
     <sheet name="Growables" sheetId="2" r:id="rId5"/>
-    <sheet name="ProductionBuilding" sheetId="7" r:id="rId6"/>
-    <sheet name="Farm" sheetId="8" r:id="rId7"/>
-    <sheet name="RessourceMining" sheetId="11" r:id="rId8"/>
+    <sheet name="Farm" sheetId="8" r:id="rId6"/>
+    <sheet name="RessourceMining" sheetId="11" r:id="rId7"/>
+    <sheet name="ProductionBuilding" sheetId="7" r:id="rId8"/>
     <sheet name="Military" sheetId="6" r:id="rId9"/>
     <sheet name="Palace" sheetId="9" r:id="rId10"/>
     <sheet name="Decorative" sheetId="10" r:id="rId11"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="317">
   <si>
     <t>ID</t>
   </si>
@@ -490,9 +490,6 @@
     <t>Saltmine</t>
   </si>
   <si>
-    <t>Salz?</t>
-  </si>
-  <si>
     <t>Imkerei</t>
   </si>
   <si>
@@ -658,9 +655,6 @@
     <t>Agestages</t>
   </si>
   <si>
-    <t>Salt?</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -959,25 +953,46 @@
   </si>
   <si>
     <t>Nobleman house</t>
+  </si>
+  <si>
+    <t>Brennerei</t>
+  </si>
+  <si>
+    <t>Distellery</t>
+  </si>
+  <si>
+    <t>still need to make the class</t>
+  </si>
+  <si>
+    <t>Salt Mill</t>
+  </si>
+  <si>
+    <t>Salzmühle</t>
+  </si>
+  <si>
+    <t>Käserei</t>
+  </si>
+  <si>
+    <t>Cheese Dairy</t>
+  </si>
+  <si>
+    <t>Ziegenfarm</t>
+  </si>
+  <si>
+    <t>Goat Farm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -994,8 +1009,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,6 +1041,16 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1048,23 +1087,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1073,16 +1111,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1144,13 +1192,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:O5" tableType="xml" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:O5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="ID">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ID" name="ID" dataCellStyle="Gut">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/@ID" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="DE_Name" name="GERMAN">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="DE_Name" name="GERMAN" dataCellStyle="Gut">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/DE_Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="EN_Name" name="ENGLISH">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="EN_Name" name="ENGLISH" dataCellStyle="Gut">
       <xmlColumnPr mapId="5" xpath="/Buildings/Road/EN_Name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="Pop_Level" name="Population-Level">
@@ -1494,7 +1542,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,60 +1568,60 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
+      <c r="B2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1594,11 +1642,11 @@
         <v>18</v>
       </c>
       <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
         <v>15</v>
       </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
       <c r="L2">
         <v>0</v>
       </c>
@@ -1611,25 +1659,16 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1500</v>
-      </c>
-      <c r="R2">
-        <v>25</v>
-      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
+      <c r="B3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -1653,7 +1692,7 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L3">
         <v>5</v>
@@ -1667,19 +1706,16 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
+      <c r="B4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1700,7 +1736,7 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>30</v>
@@ -1717,19 +1753,16 @@
       <c r="O4">
         <v>5</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
+      <c r="A5" s="15">
+        <v>51</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1738,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1750,10 +1783,10 @@
         <v>18</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1767,16 +1800,25 @@
       <c r="O5">
         <v>0</v>
       </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1500</v>
+      </c>
+      <c r="R5">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
+      <c r="A6" s="15">
+        <v>52</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -1785,7 +1827,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1800,7 +1842,7 @@
         <v>30</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -1814,16 +1856,19 @@
       <c r="O6">
         <v>0</v>
       </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
+      <c r="A7" s="15">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1832,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1844,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="J7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>30</v>
@@ -1860,6 +1905,9 @@
       </c>
       <c r="O7">
         <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1901,7 +1949,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,12 +1962,12 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>600</v>
+        <v>1101</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1927,7 +1975,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>601</v>
+        <v>1102</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1935,7 +1983,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>602</v>
+        <v>1103</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1943,7 +1991,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>603</v>
+        <v>1104</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1951,7 +1999,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>604</v>
+        <v>1105</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1959,7 +2007,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>605</v>
+        <v>1106</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1967,7 +2015,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>606</v>
+        <v>1107</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1975,7 +2023,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>607</v>
+        <v>1108</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1983,7 +2031,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>608</v>
+        <v>1109</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1996,14 +2044,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1201</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2013,7 +2067,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,50 +2098,50 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="15">
+        <v>101</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D2">
@@ -2099,42 +2153,42 @@
       <c r="F2" s="2">
         <v>0.75</v>
       </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
         <v>100</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="15">
+        <v>102</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D3">
@@ -2146,42 +2200,42 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
         <v>250</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="15">
+        <v>103</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D4">
@@ -2193,42 +2247,42 @@
       <c r="F4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
         <v>600</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="15">
+        <v>104</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D5">
@@ -2240,31 +2294,31 @@
       <c r="F5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
         <v>800</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2278,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,60 +2354,60 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>201</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>220</v>
-      </c>
-      <c r="R1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" t="s">
-        <v>303</v>
+      <c r="B2" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>301</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2362,24 +2416,24 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>202</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" t="s">
-        <v>305</v>
+      <c r="B3" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -2388,7 +2442,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2398,14 +2452,14 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C4" t="s">
-        <v>306</v>
+      <c r="A4" s="15">
+        <v>203</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2414,7 +2468,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2424,174 +2478,71 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>29</v>
+      <c r="A5" s="15">
+        <v>204</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="18">
+        <v>301</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="18">
+        <v>302</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="D13" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="18">
+        <v>303</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="18">
+        <v>304</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>101</v>
       </c>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="18">
+        <v>305</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>50</v>
-      </c>
+      <c r="C16" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2603,7 +2554,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,62 +2577,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>215</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>216</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>217</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>219</v>
       </c>
-      <c r="R1" t="s">
-        <v>220</v>
-      </c>
-      <c r="S1" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="15">
+        <v>401</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D2">
@@ -2701,13 +2652,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="15">
+        <v>402</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D3">
@@ -2727,13 +2678,13 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="15">
+        <v>403</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D4">
@@ -2754,7 +2705,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>53</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
         <v>106</v>
@@ -2780,7 +2731,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>54</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -2806,7 +2757,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>55</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -2832,13 +2783,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>56</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -2858,13 +2809,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>57</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2884,7 +2835,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>58</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -2910,7 +2861,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>59</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -2936,7 +2887,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>60</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -2962,7 +2913,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>61</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -2988,7 +2939,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -3014,7 +2965,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>63</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -3040,7 +2991,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -3074,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="A24:N31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,63 +3048,63 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>215</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>216</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>217</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>219</v>
       </c>
-      <c r="R1" t="s">
-        <v>220</v>
-      </c>
-      <c r="S1" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" t="s">
-        <v>262</v>
+      <c r="A2" s="14">
+        <v>501</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -3199,13 +3150,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>101</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="15">
+        <v>502</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D3">
@@ -3252,13 +3203,13 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="14">
+        <v>503</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D4">
@@ -3305,13 +3256,13 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="15">
+        <v>504</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D5">
@@ -3358,14 +3309,14 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>104</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+      <c r="A6" s="14">
+        <v>505</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="D6">
         <v>47</v>
@@ -3411,14 +3362,14 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>105</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+      <c r="A7" s="15">
+        <v>506</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D7">
         <v>28</v>
@@ -3464,14 +3415,14 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>106</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
+      <c r="A8" s="14">
+        <v>507</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D8">
         <v>33</v>
@@ -3518,13 +3469,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>107</v>
+        <v>508</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>54</v>
@@ -3571,13 +3522,13 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>108</v>
+        <v>509</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>43</v>
@@ -3623,14 +3574,14 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>109</v>
+      <c r="A11">
+        <v>510</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>74</v>
@@ -3676,14 +3627,14 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>110</v>
+      <c r="A12" s="2">
+        <v>511</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>76</v>
@@ -3729,14 +3680,14 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>111</v>
+      <c r="A13">
+        <v>512</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>59</v>
@@ -3783,13 +3734,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>112</v>
+        <v>513</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>81</v>
@@ -3836,13 +3787,13 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>113</v>
+        <v>514</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>45</v>
@@ -3889,13 +3840,13 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>114</v>
+        <v>515</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>35</v>
@@ -3941,14 +3892,14 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>115</v>
+      <c r="A17">
+        <v>516</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D17">
         <v>40</v>
@@ -3994,14 +3945,14 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>116</v>
+      <c r="A18" s="2">
+        <v>517</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -4048,13 +3999,13 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>117</v>
+        <v>518</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D19">
         <v>62</v>
@@ -4101,7 +4052,6 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
@@ -4112,1058 +4062,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="12"/>
-    <col min="2" max="3" width="27.7109375" style="12" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="12"/>
-    <col min="6" max="6" width="14" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="12"/>
-    <col min="8" max="8" width="20.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="12" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="11.42578125" style="12"/>
-    <col min="20" max="20" width="11.5703125" style="12" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="12"/>
-    <col min="22" max="22" width="21.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>200</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="12">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="12">
-        <v>27</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>201</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="12">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>23</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>202</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="12">
-        <v>47</v>
-      </c>
-      <c r="G4" s="12">
-        <v>48</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>203</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="12">
-        <v>48</v>
-      </c>
-      <c r="G5" s="12">
-        <v>49</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>204</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="12">
-        <v>28</v>
-      </c>
-      <c r="G6" s="12">
-        <v>29</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>205</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="12">
-        <v>29</v>
-      </c>
-      <c r="G7" s="12">
-        <v>30</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>206</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" s="12">
-        <v>21</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>207</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="12">
-        <v>21</v>
-      </c>
-      <c r="G9" s="12">
-        <v>2</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>208</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="12">
-        <v>65</v>
-      </c>
-      <c r="G10" s="12">
-        <v>66</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>209</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="12">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>210</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="12">
-        <v>55</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>211</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="12">
-        <v>34</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>212</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="G14" s="12">
-        <v>52</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>213</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="12">
-        <v>52</v>
-      </c>
-      <c r="G15" s="12">
-        <v>53</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>214</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="G16" s="12">
-        <v>4</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>215</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="G17" s="12">
-        <v>5</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>216</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D18" s="12">
-        <v>43</v>
-      </c>
-      <c r="G18" s="12">
-        <v>44</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>217</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="12">
-        <v>55</v>
-      </c>
-      <c r="G19" s="12">
-        <v>56</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>218</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>219</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>220</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>221</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>222</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>223</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-      <c r="J25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>224</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
-      </c>
-      <c r="J26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>225</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>226</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>227</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
-      <c r="J29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>228</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0</v>
-      </c>
-      <c r="J30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>229</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I31" s="12">
-        <v>0</v>
-      </c>
-      <c r="J31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>230</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="I32" s="12">
-        <v>0</v>
-      </c>
-      <c r="J32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>231</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0</v>
-      </c>
-      <c r="J33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>232</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-      <c r="J34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>233</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0</v>
-      </c>
-      <c r="J35" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>234</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I36" s="12">
-        <v>0</v>
-      </c>
-      <c r="J36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>235</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I37" s="12">
-        <v>0</v>
-      </c>
-      <c r="J37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>236</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" s="12">
-        <v>0</v>
-      </c>
-      <c r="J38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>237</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I39" s="12">
-        <v>0</v>
-      </c>
-      <c r="J39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>238</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" s="12">
-        <v>0</v>
-      </c>
-      <c r="J40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>239</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I41" s="12">
-        <v>0</v>
-      </c>
-      <c r="J41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>240</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I42" s="12">
-        <v>0</v>
-      </c>
-      <c r="J42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>241</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0</v>
-      </c>
-      <c r="J43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5188,62 +4091,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>215</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>216</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>217</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>219</v>
       </c>
-      <c r="R1" t="s">
-        <v>220</v>
-      </c>
-      <c r="S1" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>400</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="14">
+        <v>601</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>132</v>
       </c>
       <c r="F2">
@@ -5251,13 +4154,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>401</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="14">
+        <v>602</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
         <v>135</v>
       </c>
       <c r="F3">
@@ -5265,13 +4168,13 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>402</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="14">
+        <v>603</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F4">
@@ -5279,84 +4182,84 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>403</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>139</v>
+      <c r="A5" s="14">
+        <v>604</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="F5">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>404</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
+      <c r="A6" s="14">
+        <v>605</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="F6">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>405</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
+      <c r="A7" s="14">
+        <v>606</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="F7">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>406</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>156</v>
+      <c r="A8" s="14">
+        <v>607</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>407</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>158</v>
+      <c r="A9" s="14">
+        <v>608</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="F9">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>408</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
+      <c r="A10" s="14">
+        <v>609</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="F10">
         <v>107</v>
@@ -5364,13 +4267,13 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>409</v>
+        <v>610</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="F11">
         <v>108</v>
@@ -5378,13 +4281,13 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>410</v>
+        <v>611</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -5392,13 +4295,13 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>411</v>
+        <v>612</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="F13">
         <v>109</v>
@@ -5406,13 +4309,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>412</v>
+        <v>613</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -5420,13 +4323,13 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>413</v>
+        <v>614</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F15">
         <v>111</v>
@@ -5434,13 +4337,13 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>414</v>
+        <v>615</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="F16">
         <v>115</v>
@@ -5448,13 +4351,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>415</v>
+        <v>616</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="F17">
         <v>112</v>
@@ -5462,13 +4365,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>416</v>
+        <v>617</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F18">
         <v>115</v>
@@ -5476,13 +4379,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>417</v>
+        <v>618</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F19">
         <v>113</v>
@@ -5490,13 +4393,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>418</v>
+        <v>619</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F20">
         <v>114</v>
@@ -5504,20 +4407,28 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>419</v>
+        <v>620</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="F21">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>621</v>
+      </c>
+      <c r="B22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -5536,12 +4447,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5566,65 +4477,65 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" t="s">
-        <v>226</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" t="s">
         <v>213</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>216</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>218</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>219</v>
       </c>
-      <c r="S1" t="s">
-        <v>220</v>
-      </c>
-      <c r="T1" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>450</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="15">
+        <v>701</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D2">
@@ -5634,23 +4545,23 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" t="s">
         <v>202</v>
       </c>
-      <c r="H2" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>451</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="15">
+        <v>702</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
         <v>147</v>
       </c>
       <c r="D3">
@@ -5660,23 +4571,23 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" t="s">
         <v>202</v>
       </c>
-      <c r="H3" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>452</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="15">
+        <v>703</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="15" t="s">
         <v>152</v>
       </c>
       <c r="D4">
@@ -5686,24 +4597,24 @@
         <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" t="s">
         <v>202</v>
-      </c>
-      <c r="H4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>453</v>
+        <v>704</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -5712,24 +4623,24 @@
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" t="s">
         <v>202</v>
-      </c>
-      <c r="H5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>454</v>
+        <v>705</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D6">
         <v>13</v>
@@ -5738,24 +4649,24 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>455</v>
+        <v>706</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D7">
         <v>15.7</v>
@@ -5764,24 +4675,24 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>456</v>
+        <v>707</v>
       </c>
       <c r="B8" t="s">
         <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8">
         <v>17.8</v>
@@ -5790,24 +4701,24 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" t="s">
         <v>202</v>
-      </c>
-      <c r="H8" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>457</v>
+        <v>708</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D9">
         <v>19.899999999999999</v>
@@ -5816,24 +4727,24 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" t="s">
         <v>202</v>
-      </c>
-      <c r="H9" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>458</v>
+        <v>709</v>
       </c>
       <c r="B10" t="s">
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10">
         <v>22</v>
@@ -5842,24 +4753,24 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" t="s">
         <v>202</v>
-      </c>
-      <c r="H10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>459</v>
+        <v>710</v>
       </c>
       <c r="B11" t="s">
         <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D11">
         <v>24.1</v>
@@ -5868,24 +4779,24 @@
         <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>460</v>
+        <v>711</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D12">
         <v>26.2</v>
@@ -5894,24 +4805,24 @@
         <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" t="s">
         <v>202</v>
-      </c>
-      <c r="H12" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>461</v>
+        <v>712</v>
       </c>
       <c r="B13" t="s">
         <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13">
         <v>28.3</v>
@@ -5920,17 +4831,1083 @@
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" t="s">
         <v>202</v>
-      </c>
-      <c r="H13" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:T54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="11"/>
+    <col min="2" max="3" width="27.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="11"/>
+    <col min="5" max="5" width="5.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="11"/>
+    <col min="8" max="8" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="11" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="11.42578125" style="11"/>
+    <col min="20" max="20" width="11.5703125" style="11" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="11"/>
+    <col min="22" max="22" width="21.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>801</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="11">
+        <v>27</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>802</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>23</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>803</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="11">
+        <v>48</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>804</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="11">
+        <v>47</v>
+      </c>
+      <c r="G5" s="11">
+        <v>49</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>805</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="11">
+        <v>48</v>
+      </c>
+      <c r="G6" s="11">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>806</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="11">
+        <v>28</v>
+      </c>
+      <c r="G7" s="11">
+        <v>30</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>807</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="11">
+        <v>29</v>
+      </c>
+      <c r="G8" s="11">
+        <v>21</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>808</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>809</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="11">
+        <v>21</v>
+      </c>
+      <c r="G10" s="11">
+        <v>66</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>810</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="11">
+        <v>65</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>811</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>812</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="11">
+        <v>55</v>
+      </c>
+      <c r="G13" s="11">
+        <v>34</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>813</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" s="11">
+        <v>52</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>814</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G15" s="11">
+        <v>53</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>815</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="11">
+        <v>52</v>
+      </c>
+      <c r="G16" s="11">
+        <v>4</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>816</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>817</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" s="11">
+        <v>44</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>818</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="11">
+        <v>43</v>
+      </c>
+      <c r="G19" s="11">
+        <v>56</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>819</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="11">
+        <v>55</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>820</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>821</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>822</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>823</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>824</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>825</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>826</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>827</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>828</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>829</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>830</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>831</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>832</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>833</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>834</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>835</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>836</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>837</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>838</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>839</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>840</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>841</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>842</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>843</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5960,54 +5937,54 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" t="s">
         <v>213</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>214</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>215</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>216</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>217</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>218</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>219</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>220</v>
-      </c>
-      <c r="R1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>500</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -6027,7 +6004,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>501</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
         <v>97</v>
@@ -6047,7 +6024,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>502</v>
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
         <v>98</v>
@@ -6067,7 +6044,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>503</v>
+        <v>1004</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -6076,7 +6053,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -6087,7 +6064,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>504</v>
+        <v>1005</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -6107,13 +6084,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>505</v>
+        <v>1006</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E7">
         <v>203</v>
@@ -6127,16 +6104,16 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>506</v>
+        <v>1007</v>
       </c>
       <c r="B8" t="s">
         <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G8">
         <v>6</v>

--- a/DesignFiles/Excel/Buildings.xlsx
+++ b/DesignFiles/Excel/Buildings.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225F347E-A754-4079-A27E-52E3366A48C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11925" tabRatio="777" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11925" tabRatio="777" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketBuilding" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="318">
   <si>
     <t>ID</t>
   </si>
@@ -980,6 +981,9 @@
   </si>
   <si>
     <t>Goat Farm</t>
+  </si>
+  <si>
+    <t>Fort</t>
   </si>
 </sst>
 </file>
@@ -3025,7 +3029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -5915,8 +5919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6027,13 +6031,7 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6047,13 +6045,13 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>293</v>
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>206</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -6067,13 +6065,13 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>200</v>
+      <c r="E6" t="s">
+        <v>293</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -6087,13 +6085,13 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>296</v>
+        <v>79</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -6107,19 +6105,33 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E8" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="E8">
+        <v>203</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">

--- a/DesignFiles/Excel/Buildings.xlsx
+++ b/DesignFiles/Excel/Buildings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225F347E-A754-4079-A27E-52E3366A48C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E27039-5B96-46EC-AF6F-5883C0A4C633}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11925" tabRatio="777" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15555" tabRatio="777" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketBuilding" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="319">
   <si>
     <t>ID</t>
   </si>
@@ -984,6 +984,9 @@
   </si>
   <si>
     <t>Fort</t>
+  </si>
+  <si>
+    <t>Bank</t>
   </si>
 </sst>
 </file>
@@ -2555,10 +2558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,10 +2845,10 @@
         <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2868,10 +2871,10 @@
         <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -2894,10 +2897,10 @@
         <v>411</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -2920,10 +2923,10 @@
         <v>412</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -2946,10 +2949,10 @@
         <v>413</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -2972,10 +2975,10 @@
         <v>414</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2998,10 +3001,10 @@
         <v>415</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -3017,6 +3020,14 @@
       </c>
       <c r="I16">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5919,7 +5930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
